--- a/va_facility_data_2025-02-20/Saint Thomas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saint%20Thomas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Saint Thomas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saint%20Thomas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd73ee8c9246f481a93965890b4aa7a68"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3c55d42e0edb49b1a2c1702fbe6b0649"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc1e8c86d131747e18c9231f68faff0b0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1afa026fdfdf48509e63cf94074564fb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R62e7e730673347c3a6f744629b5cc74c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3ee5bcbd058a4c11961b9d3a7c61ddb8"/>
   </x:sheets>
 </x:workbook>
 </file>
